--- a/example/sample.xlsx
+++ b/example/sample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="28160" windowHeight="15420" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="80">
   <si>
     <t>Name</t>
   </si>
@@ -237,13 +237,53 @@
   </si>
   <si>
     <t>fields</t>
+  </si>
+  <si>
+    <t>Ignore</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>UberX</t>
+  </si>
+  <si>
+    <t>1.png</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Doe</t>
+  </si>
+  <si>
+    <t>jdoe@uber.com</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>f81d4fae-7dec-11d0-a765-00a0c91e6bf6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -255,6 +295,14 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -304,17 +352,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -590,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -617,7 +671,7 @@
     <col min="17" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -666,8 +720,14 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -692,8 +752,12 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -718,8 +782,12 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -744,8 +812,12 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -770,8 +842,12 @@
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -796,8 +872,12 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
@@ -822,8 +902,12 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -848,8 +932,12 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
@@ -874,8 +962,10 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
@@ -900,8 +990,12 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="4"/>
+      <c r="R10" s="5">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
@@ -926,8 +1020,12 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="4"/>
+      <c r="R11" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -952,8 +1050,12 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="4"/>
+      <c r="R12" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -978,8 +1080,12 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>41</v>
       </c>
@@ -1004,8 +1110,12 @@
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>41</v>
       </c>
@@ -1030,8 +1140,12 @@
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>41</v>
       </c>
@@ -1056,8 +1170,12 @@
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="4"/>
+      <c r="R16" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>41</v>
       </c>
@@ -1082,8 +1200,10 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>41</v>
       </c>
@@ -1108,8 +1228,10 @@
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>52</v>
       </c>
@@ -1134,8 +1256,12 @@
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>55</v>
       </c>
@@ -1162,8 +1288,12 @@
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>55</v>
       </c>
@@ -1190,8 +1320,12 @@
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>55</v>
       </c>
@@ -1218,8 +1352,12 @@
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>55</v>
       </c>
@@ -1246,8 +1384,10 @@
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>66</v>
       </c>
@@ -1272,8 +1412,12 @@
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>66</v>
       </c>
@@ -1296,8 +1440,12 @@
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>66</v>
       </c>
@@ -1320,8 +1468,15 @@
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="R16" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>